--- a/plantilla_clientes_jesusdiaz.xlsx
+++ b/plantilla_clientes_jesusdiaz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmariacorzo/Documents/CorCRM/EnerfoneCRMv2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\01 ENERFONE\CRM Corzo\Plantillas carga masiva\jesus diaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB66F6-7E39-8240-9DF1-EBB3760D122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D015D191-E1E4-47CF-B112-A0C2ECCA73D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="840" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="209">
   <si>
     <t>TipoCliente*</t>
   </si>
@@ -647,7 +647,7 @@
     <t>JesusDiaz</t>
   </si>
   <si>
-    <t>PYME</t>
+    <t>Empresa</t>
   </si>
 </sst>
 </file>
@@ -1076,36 +1076,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="6"/>
+    <col min="19" max="19" width="13.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>208</v>
       </c>
@@ -1213,15 +1214,15 @@
       </c>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>206</v>
@@ -1233,10 +1234,10 @@
         <v>611710792</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H3" s="8">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1252,7 +1253,7 @@
         <v>6800</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>205</v>
@@ -1262,15 +1263,15 @@
       </c>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>206</v>
@@ -1282,10 +1283,10 @@
         <v>611710792</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H4" s="8">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1301,7 +1302,7 @@
         <v>6800</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>205</v>
@@ -1311,15 +1312,15 @@
       </c>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>206</v>
@@ -1331,10 +1332,10 @@
         <v>611710792</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H5" s="8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1350,7 +1351,7 @@
         <v>6800</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>205</v>
@@ -1360,15 +1361,15 @@
       </c>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>206</v>
@@ -1380,10 +1381,10 @@
         <v>611710792</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H6" s="8">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1399,7 +1400,7 @@
         <v>6800</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>205</v>
@@ -1409,15 +1410,15 @@
       </c>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>206</v>
@@ -1429,10 +1430,10 @@
         <v>611710792</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H7" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1448,7 +1449,7 @@
         <v>6800</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>205</v>
@@ -1458,15 +1459,15 @@
       </c>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>206</v>
@@ -1478,10 +1479,10 @@
         <v>611710792</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H8" s="8">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1497,7 +1498,7 @@
         <v>6800</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>205</v>
@@ -1507,15 +1508,15 @@
       </c>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>206</v>
@@ -1527,7 +1528,7 @@
         <v>611710792</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H9" s="8">
         <v>5</v>
@@ -1546,7 +1547,7 @@
         <v>6800</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>205</v>
@@ -1556,15 +1557,15 @@
       </c>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>206</v>
@@ -1576,10 +1577,10 @@
         <v>611710792</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H10" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1595,7 +1596,7 @@
         <v>6800</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>205</v>
@@ -1605,15 +1606,15 @@
       </c>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>206</v>
@@ -1625,10 +1626,10 @@
         <v>611710792</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H11" s="8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1644,7 +1645,7 @@
         <v>6800</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>205</v>
@@ -1654,15 +1655,15 @@
       </c>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>206</v>
@@ -1674,10 +1675,10 @@
         <v>611710792</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H12" s="8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1693,7 +1694,7 @@
         <v>6800</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>205</v>
@@ -1703,15 +1704,15 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>206</v>
@@ -1723,10 +1724,10 @@
         <v>611710792</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H13" s="8">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1742,7 +1743,7 @@
         <v>6800</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>205</v>
@@ -1752,15 +1753,15 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>206</v>
@@ -1772,10 +1773,10 @@
         <v>611710792</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H14" s="8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1791,7 +1792,7 @@
         <v>6800</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>205</v>
@@ -1801,15 +1802,15 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>206</v>
@@ -1821,10 +1822,10 @@
         <v>611710792</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H15" s="8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1840,7 +1841,7 @@
         <v>6800</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>205</v>
@@ -1850,15 +1851,15 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>206</v>
@@ -1870,10 +1871,10 @@
         <v>611710792</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H16" s="8">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1889,7 +1890,7 @@
         <v>6800</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>205</v>
@@ -1899,15 +1900,15 @@
       </c>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>206</v>
@@ -1919,10 +1920,10 @@
         <v>611710792</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H17" s="8">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1938,7 +1939,7 @@
         <v>6800</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>205</v>
@@ -1948,15 +1949,15 @@
       </c>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>113</v>
+      <c r="B18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>206</v>
@@ -1968,16 +1969,16 @@
         <v>611710792</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H18" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="10" t="s">
         <v>57</v>
       </c>
       <c r="N18" s="8" t="s">
@@ -1986,8 +1987,8 @@
       <c r="O18" s="9">
         <v>6800</v>
       </c>
-      <c r="P18" s="8" t="s">
-        <v>116</v>
+      <c r="P18" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>205</v>
@@ -1997,15 +1998,15 @@
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>117</v>
+      <c r="B19" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>206</v>
@@ -2016,17 +2017,17 @@
       <c r="F19" s="8">
         <v>611710792</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="8">
-        <v>15</v>
+      <c r="G19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="10" t="s">
         <v>57</v>
       </c>
       <c r="N19" s="8" t="s">
@@ -2035,8 +2036,8 @@
       <c r="O19" s="9">
         <v>6800</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>120</v>
+      <c r="P19" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>205</v>
@@ -2046,15 +2047,15 @@
       </c>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>206</v>
@@ -2065,11 +2066,11 @@
       <c r="F20" s="8">
         <v>611710792</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="8">
-        <v>15</v>
+      <c r="G20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2085,7 +2086,7 @@
         <v>6800</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>205</v>
@@ -2095,15 +2096,15 @@
       </c>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>206</v>
@@ -2115,10 +2116,10 @@
         <v>611710792</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H21" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2134,7 +2135,7 @@
         <v>6800</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="8" t="s">
         <v>205</v>
@@ -2144,15 +2145,15 @@
       </c>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>206</v>
@@ -2164,10 +2165,10 @@
         <v>611710792</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H22" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -2183,7 +2184,7 @@
         <v>6800</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="8" t="s">
         <v>205</v>
@@ -2193,15 +2194,15 @@
       </c>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>206</v>
@@ -2213,10 +2214,10 @@
         <v>611710792</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H23" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2232,7 +2233,7 @@
         <v>6800</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="8" t="s">
         <v>205</v>
@@ -2242,15 +2243,15 @@
       </c>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>206</v>
@@ -2262,10 +2263,10 @@
         <v>611710792</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H24" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -2281,7 +2282,7 @@
         <v>6800</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="8" t="s">
         <v>205</v>
@@ -2291,15 +2292,15 @@
       </c>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>206</v>
@@ -2311,10 +2312,10 @@
         <v>611710792</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H25" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -2330,7 +2331,7 @@
         <v>6800</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>205</v>
@@ -2340,15 +2341,15 @@
       </c>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>206</v>
@@ -2360,10 +2361,10 @@
         <v>611710792</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H26" s="10">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -2379,7 +2380,7 @@
         <v>6800</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>205</v>
@@ -2389,15 +2390,15 @@
       </c>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>206</v>
@@ -2409,10 +2410,10 @@
         <v>611710792</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -2428,7 +2429,7 @@
         <v>6800</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>205</v>
@@ -2438,15 +2439,15 @@
       </c>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>206</v>
@@ -2458,10 +2459,10 @@
         <v>611710792</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H28" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -2477,7 +2478,7 @@
         <v>6800</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>205</v>
@@ -2487,15 +2488,15 @@
       </c>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>206</v>
@@ -2507,10 +2508,10 @@
         <v>611710792</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H29" s="10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -2526,7 +2527,7 @@
         <v>6800</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>205</v>
@@ -2536,15 +2537,15 @@
       </c>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>206</v>
@@ -2556,10 +2557,10 @@
         <v>611710792</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="H30" s="10">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -2575,7 +2576,7 @@
         <v>6800</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="8" t="s">
         <v>205</v>
@@ -2585,15 +2586,15 @@
       </c>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>206</v>
@@ -2605,10 +2606,10 @@
         <v>611710792</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="10">
-        <v>24</v>
+        <v>169</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -2624,7 +2625,7 @@
         <v>6800</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="Q31" s="8" t="s">
         <v>205</v>
@@ -2634,15 +2635,15 @@
       </c>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>206</v>
@@ -2654,10 +2655,10 @@
         <v>611710792</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="H32" s="10">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -2673,7 +2674,7 @@
         <v>6800</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Q32" s="8" t="s">
         <v>205</v>
@@ -2683,15 +2684,15 @@
       </c>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>206</v>
@@ -2703,10 +2704,10 @@
         <v>611710792</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="H33" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -2722,7 +2723,7 @@
         <v>6800</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>205</v>
@@ -2732,15 +2733,15 @@
       </c>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>206</v>
@@ -2752,10 +2753,10 @@
         <v>611710792</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="H34" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -2771,7 +2772,7 @@
         <v>6800</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>205</v>
@@ -2781,15 +2782,15 @@
       </c>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>206</v>
@@ -2801,10 +2802,10 @@
         <v>611710792</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H35" s="10">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -2820,7 +2821,7 @@
         <v>6800</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q35" s="8" t="s">
         <v>205</v>
@@ -2830,15 +2831,15 @@
       </c>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>206</v>
@@ -2850,10 +2851,10 @@
         <v>611710792</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>170</v>
+        <v>119</v>
+      </c>
+      <c r="H36" s="10">
+        <v>28</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -2869,7 +2870,7 @@
         <v>6800</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>205</v>
@@ -2879,15 +2880,15 @@
       </c>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>206</v>
@@ -2899,7 +2900,7 @@
         <v>611710792</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="H37" s="10">
         <v>28</v>
@@ -2918,7 +2919,7 @@
         <v>6800</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>205</v>
@@ -2928,15 +2929,15 @@
       </c>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>206</v>
@@ -2948,10 +2949,10 @@
         <v>611710792</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H38" s="10">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -2967,7 +2968,7 @@
         <v>6800</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="Q38" s="8" t="s">
         <v>205</v>
@@ -2977,15 +2978,15 @@
       </c>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>206</v>
@@ -2997,10 +2998,10 @@
         <v>611710792</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="H39" s="10">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -3016,7 +3017,7 @@
         <v>6800</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q39" s="8" t="s">
         <v>205</v>
@@ -3026,15 +3027,15 @@
       </c>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>206</v>
@@ -3046,10 +3047,10 @@
         <v>611710792</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="H40" s="10">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -3065,7 +3066,7 @@
         <v>6800</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="Q40" s="8" t="s">
         <v>205</v>
@@ -3075,15 +3076,15 @@
       </c>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>206</v>
@@ -3095,10 +3096,10 @@
         <v>611710792</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="H41" s="10">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -3114,7 +3115,7 @@
         <v>6800</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Q41" s="8" t="s">
         <v>205</v>
@@ -3124,15 +3125,15 @@
       </c>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>206</v>
@@ -3144,10 +3145,10 @@
         <v>611710792</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H42" s="10">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -3163,7 +3164,7 @@
         <v>6800</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q42" s="8" t="s">
         <v>205</v>
@@ -3173,15 +3174,15 @@
       </c>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>206</v>
@@ -3193,10 +3194,10 @@
         <v>611710792</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H43" s="10">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -3212,7 +3213,7 @@
         <v>6800</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>205</v>
@@ -3222,15 +3223,15 @@
       </c>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>206</v>
@@ -3242,10 +3243,10 @@
         <v>611710792</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H44" s="10">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -3261,7 +3262,7 @@
         <v>6800</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="Q44" s="8" t="s">
         <v>205</v>
@@ -3271,442 +3272,197 @@
       </c>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="8">
-        <v>611710792</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H45" s="10">
-        <v>37</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O45" s="9">
-        <v>6800</v>
-      </c>
-      <c r="P45" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R45" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="S45" s="7"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="8">
-        <v>611710792</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H46" s="10">
-        <v>37</v>
-      </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O46" s="9">
-        <v>6800</v>
-      </c>
-      <c r="P46" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q46" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R46" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="S46" s="7"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="8">
-        <v>611710792</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="10">
-        <v>6</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O47" s="9">
-        <v>6800</v>
-      </c>
-      <c r="P47" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q47" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="S47" s="7"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="8">
-        <v>611710792</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H48" s="10">
-        <v>16</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O48" s="9">
-        <v>6800</v>
-      </c>
-      <c r="P48" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q48" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R48" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="S48" s="7"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="8">
-        <v>611710792</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="10">
-        <v>16</v>
-      </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O49" s="9">
-        <v>6800</v>
-      </c>
-      <c r="P49" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q49" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R49" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="S49" s="7"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3719,182 +3475,182 @@
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
